--- a/example_data/EPA/label_corrected/000264-00789-20171108_2018-12-07_201033.xlsx
+++ b/example_data/EPA/label_corrected/000264-00789-20171108_2018-12-07_201033.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -845,7 +845,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Env warning - water || Application instructions</t>
+          <t>application instructions || env warning - water</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
